--- a/biology/Biologie cellulaire et moléculaire/Cytodiérèse/Cytodiérèse.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Cytodiérèse/Cytodiérèse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cytodi%C3%A9r%C3%A8se</t>
+          <t>Cytodiérèse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La cytodiérèse[1] est la division de la cellule lors de la division cellulaire (mitose ou méiose) ou, plus particulièrement, de la télophase (télophase 2 lors de la méiose) . Elle permet d'obtenir, à partir d'une cellule mère, deux cellules filles identiques. Cela peut aussi s'appliquer sur des cellules animales ou végétales.
-La cytodiérèse est autrement appelée le partage du cytoplasme[2]
+La cytodiérèse est la division de la cellule lors de la division cellulaire (mitose ou méiose) ou, plus particulièrement, de la télophase (télophase 2 lors de la méiose) . Elle permet d'obtenir, à partir d'une cellule mère, deux cellules filles identiques. Cela peut aussi s'appliquer sur des cellules animales ou végétales.
+La cytodiérèse est autrement appelée le partage du cytoplasme
 La caryocinèse est le phénomène de séparation du noyau d'une cellule en deux parties distinctes (la mitose, qui est une division cellulaire sans rapport avec la fécondation, dite asexuée).
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cytodi%C3%A9r%C3%A8se</t>
+          <t>Cytodiérèse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Corps central</t>
         </is>
